--- a/medicine/Enfance/Charles_Lancar/Charles_Lancar.xlsx
+++ b/medicine/Enfance/Charles_Lancar/Charles_Lancar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Lancar, né le 22 janvier 1943 à Tunis, est un écrivain français.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,21 +553,94 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Les Marchands
-Adélaïde, Calmann-Lévy, 1989, 267 p.  (ISBN 2-7021-1784-8)
+          <t>Série Les Marchands</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adélaïde, Calmann-Lévy, 1989, 267 p.  (ISBN 2-7021-1784-8)
 Adrien. 1918-1940, Ramsay, 1992, 296 p.  (ISBN 2-84041-011-7)
-Antoine. 1940-1945, Belfond, 1998, 248 p.  (ISBN 2-7144-3478-9)
-Romans indépendants
-Tourbillons, Belfond, 1985, 339 p.  (ISBN 2-7144-1784-1)
+Antoine. 1940-1945, Belfond, 1998, 248 p.  (ISBN 2-7144-3478-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Charles_Lancar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Lancar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tourbillons, Belfond, 1985, 339 p.  (ISBN 2-7144-1784-1)
 Passion bleu nuit, Calmann-Lévy, 1987, 243 p.  (ISBN 2-7021-1612-4)
 Les Racines du figuier, Plon, 1997, 305 p.  (ISBN 2-259-18408-1)Société des Gens de Lettres
 Passage Verdeau, Mazarine, 2000, 229 p.  (ISBN 2-86374-333-3)
 Cafés crème, Ramsay, 2005, 254 p.  (ISBN 2-84114-721-5)
-Le Vent des marchés, Belfond, 2010, 307 p.  (ISBN 978-2-7144-4487-5)[1]
+Le Vent des marchés, Belfond, 2010, 307 p.  (ISBN 978-2-7144-4487-5)
 L’Ombre &amp; le Philosophe, Ovadia, coll. « Histoires et destinées, 2012, 257 p.  (ISBN 978-2-915741-76-6)
-La Terre et le Ciel, Anne Carrière, 2014, 350 p.  (ISBN 978-2-8433-7728-0)
-Ouvrages divers
-La Révolte des bonbons, Gautier-Languereau, 1991, 24 p.  (ISBN 2-217-38101-6)Illustré par Marthe Seguin-Fontes
+La Terre et le Ciel, Anne Carrière, 2014, 350 p.  (ISBN 978-2-8433-7728-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charles_Lancar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Lancar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages divers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Révolte des bonbons, Gautier-Languereau, 1991, 24 p.  (ISBN 2-217-38101-6)Illustré par Marthe Seguin-Fontes
 Vendeurs en action ! Toutes les situations de vente et comment les réussir, Publi-Union, 1992, 127 p.  (ISBN 2-85790-078-3)
 Le Voyage de Gatinette, Gautier-Languereau, 1993, 24 p.  (ISBN 2-01-019515-9)Illustré par Roser Capdevila</t>
         </is>
